--- a/natmiOut/YoungD0/LR-pairs_lrc2p/Fn1-Itga8.xlsx
+++ b/natmiOut/YoungD0/LR-pairs_lrc2p/Fn1-Itga8.xlsx
@@ -528,52 +528,52 @@
         <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>18.9966555357926</v>
+        <v>21.84976866666667</v>
       </c>
       <c r="H2">
-        <v>18.9966555357926</v>
+        <v>65.549306</v>
       </c>
       <c r="I2">
-        <v>0.04463632731170449</v>
+        <v>0.05020018890879543</v>
       </c>
       <c r="J2">
-        <v>0.04463632731170449</v>
+        <v>0.05020018890879543</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>1.22958853492604</v>
+        <v>1.518534666666667</v>
       </c>
       <c r="N2">
-        <v>1.22958853492604</v>
+        <v>4.555604</v>
       </c>
       <c r="O2">
-        <v>0.1073055960023796</v>
+        <v>0.1025715407499064</v>
       </c>
       <c r="P2">
-        <v>0.1073055960023796</v>
+        <v>0.1025715407499064</v>
       </c>
       <c r="Q2">
-        <v>23.35806984874987</v>
+        <v>33.17963117898044</v>
       </c>
       <c r="R2">
-        <v>23.35806984874987</v>
+        <v>298.616680610824</v>
       </c>
       <c r="S2">
-        <v>0.004789727705539744</v>
+        <v>0.005149110722311508</v>
       </c>
       <c r="T2">
-        <v>0.004789727705539744</v>
+        <v>0.005149110722311508</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -590,52 +590,52 @@
         <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>18.9966555357926</v>
+        <v>21.84976866666667</v>
       </c>
       <c r="H3">
-        <v>18.9966555357926</v>
+        <v>65.549306</v>
       </c>
       <c r="I3">
-        <v>0.04463632731170449</v>
+        <v>0.05020018890879543</v>
       </c>
       <c r="J3">
-        <v>0.04463632731170449</v>
+        <v>0.05020018890879543</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>4.25155790145053</v>
+        <v>4.418558666666667</v>
       </c>
       <c r="N3">
-        <v>4.25155790145053</v>
+        <v>13.255676</v>
       </c>
       <c r="O3">
-        <v>0.3710313991999095</v>
+        <v>0.2984577041818288</v>
       </c>
       <c r="P3">
-        <v>0.3710313991999095</v>
+        <v>0.2984577041818288</v>
       </c>
       <c r="Q3">
-        <v>80.76538094433297</v>
+        <v>96.54448470676178</v>
       </c>
       <c r="R3">
-        <v>80.76538094433297</v>
+        <v>868.900362360856</v>
       </c>
       <c r="S3">
-        <v>0.01656147897760685</v>
+        <v>0.01498263313121319</v>
       </c>
       <c r="T3">
-        <v>0.01656147897760685</v>
+        <v>0.01498263313121319</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -652,52 +652,52 @@
         <v>22</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>18.9966555357926</v>
+        <v>21.84976866666667</v>
       </c>
       <c r="H4">
-        <v>18.9966555357926</v>
+        <v>65.549306</v>
       </c>
       <c r="I4">
-        <v>0.04463632731170449</v>
+        <v>0.05020018890879543</v>
       </c>
       <c r="J4">
-        <v>0.04463632731170449</v>
+        <v>0.05020018890879543</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>5.97760856554125</v>
+        <v>8.867545999999999</v>
       </c>
       <c r="N4">
-        <v>5.97760856554125</v>
+        <v>26.602638</v>
       </c>
       <c r="O4">
-        <v>0.521663004797711</v>
+        <v>0.5989707550682648</v>
       </c>
       <c r="P4">
-        <v>0.521663004797711</v>
+        <v>0.5989707550682649</v>
       </c>
       <c r="Q4">
-        <v>113.5545708473905</v>
+        <v>193.7538287410253</v>
       </c>
       <c r="R4">
-        <v>113.5545708473905</v>
+        <v>1743.784458669228</v>
       </c>
       <c r="S4">
-        <v>0.0232851206285579</v>
+        <v>0.03006844505527073</v>
       </c>
       <c r="T4">
-        <v>0.0232851206285579</v>
+        <v>0.03006844505527074</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -714,52 +714,52 @@
         <v>20</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>379.954067822278</v>
+        <v>385.0524703333334</v>
       </c>
       <c r="H5">
-        <v>379.954067822278</v>
+        <v>1155.157411</v>
       </c>
       <c r="I5">
-        <v>0.8927757890210728</v>
+        <v>0.8846641374295412</v>
       </c>
       <c r="J5">
-        <v>0.8927757890210728</v>
+        <v>0.8846641374295412</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>1.22958853492604</v>
+        <v>1.518534666666667</v>
       </c>
       <c r="N5">
-        <v>1.22958853492604</v>
+        <v>4.555604</v>
       </c>
       <c r="O5">
-        <v>0.1073055960023796</v>
+        <v>0.1025715407499064</v>
       </c>
       <c r="P5">
-        <v>0.1073055960023796</v>
+        <v>0.1025715407499064</v>
       </c>
       <c r="Q5">
-        <v>467.187165592784</v>
+        <v>584.7155246868049</v>
       </c>
       <c r="R5">
-        <v>467.187165592784</v>
+        <v>5262.439722181244</v>
       </c>
       <c r="S5">
-        <v>0.09579983813740091</v>
+        <v>0.09074136362233495</v>
       </c>
       <c r="T5">
-        <v>0.09579983813740091</v>
+        <v>0.09074136362233495</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -776,52 +776,52 @@
         <v>21</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>379.954067822278</v>
+        <v>385.0524703333334</v>
       </c>
       <c r="H6">
-        <v>379.954067822278</v>
+        <v>1155.157411</v>
       </c>
       <c r="I6">
-        <v>0.8927757890210728</v>
+        <v>0.8846641374295412</v>
       </c>
       <c r="J6">
-        <v>0.8927757890210728</v>
+        <v>0.8846641374295412</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>4.25155790145053</v>
+        <v>4.418558666666667</v>
       </c>
       <c r="N6">
-        <v>4.25155790145053</v>
+        <v>13.255676</v>
       </c>
       <c r="O6">
-        <v>0.3710313991999095</v>
+        <v>0.2984577041818288</v>
       </c>
       <c r="P6">
-        <v>0.3710313991999095</v>
+        <v>0.2984577041818288</v>
       </c>
       <c r="Q6">
-        <v>1615.396719238077</v>
+        <v>1701.37692991276</v>
       </c>
       <c r="R6">
-        <v>1615.396719238077</v>
+        <v>15312.39236921484</v>
       </c>
       <c r="S6">
-        <v>0.3312478501722918</v>
+        <v>0.2640348274292187</v>
       </c>
       <c r="T6">
-        <v>0.3312478501722918</v>
+        <v>0.2640348274292187</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -838,52 +838,52 @@
         <v>22</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>379.954067822278</v>
+        <v>385.0524703333334</v>
       </c>
       <c r="H7">
-        <v>379.954067822278</v>
+        <v>1155.157411</v>
       </c>
       <c r="I7">
-        <v>0.8927757890210728</v>
+        <v>0.8846641374295412</v>
       </c>
       <c r="J7">
-        <v>0.8927757890210728</v>
+        <v>0.8846641374295412</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>5.97760856554125</v>
+        <v>8.867545999999999</v>
       </c>
       <c r="N7">
-        <v>5.97760856554125</v>
+        <v>26.602638</v>
       </c>
       <c r="O7">
-        <v>0.521663004797711</v>
+        <v>0.5989707550682648</v>
       </c>
       <c r="P7">
-        <v>0.521663004797711</v>
+        <v>0.5989707550682649</v>
       </c>
       <c r="Q7">
-        <v>2271.21669032669</v>
+        <v>3414.470493094469</v>
       </c>
       <c r="R7">
-        <v>2271.21669032669</v>
+        <v>30730.23443785022</v>
       </c>
       <c r="S7">
-        <v>0.4657281007113801</v>
+        <v>0.5298879463779875</v>
       </c>
       <c r="T7">
-        <v>0.4657281007113801</v>
+        <v>0.5298879463779875</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -900,52 +900,52 @@
         <v>20</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>26.63661054454</v>
+        <v>28.350479</v>
       </c>
       <c r="H8">
-        <v>26.63661054454</v>
+        <v>85.05143699999999</v>
       </c>
       <c r="I8">
-        <v>0.06258788366722257</v>
+        <v>0.06513567366166337</v>
       </c>
       <c r="J8">
-        <v>0.06258788366722257</v>
+        <v>0.06513567366166337</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L8">
         <v>1</v>
       </c>
       <c r="M8">
-        <v>1.22958853492604</v>
+        <v>1.518534666666667</v>
       </c>
       <c r="N8">
-        <v>1.22958853492604</v>
+        <v>4.555604</v>
       </c>
       <c r="O8">
-        <v>0.1073055960023796</v>
+        <v>0.1025715407499064</v>
       </c>
       <c r="P8">
-        <v>0.1073055960023796</v>
+        <v>0.1025715407499064</v>
       </c>
       <c r="Q8">
-        <v>32.75207093485645</v>
+        <v>43.05118517810533</v>
       </c>
       <c r="R8">
-        <v>32.75207093485645</v>
+        <v>387.4606666029479</v>
       </c>
       <c r="S8">
-        <v>0.006716030159438916</v>
+        <v>0.006681066405259907</v>
       </c>
       <c r="T8">
-        <v>0.006716030159438916</v>
+        <v>0.006681066405259907</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -962,52 +962,52 @@
         <v>21</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
       <c r="G9">
-        <v>26.63661054454</v>
+        <v>28.350479</v>
       </c>
       <c r="H9">
-        <v>26.63661054454</v>
+        <v>85.05143699999999</v>
       </c>
       <c r="I9">
-        <v>0.06258788366722257</v>
+        <v>0.06513567366166337</v>
       </c>
       <c r="J9">
-        <v>0.06258788366722257</v>
+        <v>0.06513567366166337</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L9">
         <v>1</v>
       </c>
       <c r="M9">
-        <v>4.25155790145053</v>
+        <v>4.418558666666667</v>
       </c>
       <c r="N9">
-        <v>4.25155790145053</v>
+        <v>13.255676</v>
       </c>
       <c r="O9">
-        <v>0.3710313991999095</v>
+        <v>0.2984577041818288</v>
       </c>
       <c r="P9">
-        <v>0.3710313991999095</v>
+        <v>0.2984577041818288</v>
       </c>
       <c r="Q9">
-        <v>113.2470920284996</v>
+        <v>125.2682546896013</v>
       </c>
       <c r="R9">
-        <v>113.2470920284996</v>
+        <v>1127.414292206412</v>
       </c>
       <c r="S9">
-        <v>0.02322207005001075</v>
+        <v>0.01944024362139686</v>
       </c>
       <c r="T9">
-        <v>0.02322207005001075</v>
+        <v>0.01944024362139686</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1024,52 +1024,52 @@
         <v>22</v>
       </c>
       <c r="E10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F10">
         <v>1</v>
       </c>
       <c r="G10">
-        <v>26.63661054454</v>
+        <v>28.350479</v>
       </c>
       <c r="H10">
-        <v>26.63661054454</v>
+        <v>85.05143699999999</v>
       </c>
       <c r="I10">
-        <v>0.06258788366722257</v>
+        <v>0.06513567366166337</v>
       </c>
       <c r="J10">
-        <v>0.06258788366722257</v>
+        <v>0.06513567366166337</v>
       </c>
       <c r="K10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L10">
         <v>1</v>
       </c>
       <c r="M10">
-        <v>5.97760856554125</v>
+        <v>8.867545999999999</v>
       </c>
       <c r="N10">
-        <v>5.97760856554125</v>
+        <v>26.602638</v>
       </c>
       <c r="O10">
-        <v>0.521663004797711</v>
+        <v>0.5989707550682648</v>
       </c>
       <c r="P10">
-        <v>0.521663004797711</v>
+        <v>0.5989707550682649</v>
       </c>
       <c r="Q10">
-        <v>159.2232313480287</v>
+        <v>251.3991766545339</v>
       </c>
       <c r="R10">
-        <v>159.2232313480287</v>
+        <v>2262.592589890806</v>
       </c>
       <c r="S10">
-        <v>0.0326497834577729</v>
+        <v>0.0390143636350066</v>
       </c>
       <c r="T10">
-        <v>0.0326497834577729</v>
+        <v>0.03901436363500661</v>
       </c>
     </row>
   </sheetData>
